--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>23.658831</v>
+        <v>0.07794266666666667</v>
       </c>
       <c r="H2">
-        <v>70.976493</v>
+        <v>0.233828</v>
       </c>
       <c r="I2">
-        <v>0.4072859458409285</v>
+        <v>0.002827880818927331</v>
       </c>
       <c r="J2">
-        <v>0.4072859458409285</v>
+        <v>0.00282788081892733</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N2">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O2">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P2">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q2">
-        <v>2.706128634888</v>
+        <v>0.008948857368888889</v>
       </c>
       <c r="R2">
-        <v>24.355157713992</v>
+        <v>0.08053971632000001</v>
       </c>
       <c r="S2">
-        <v>0.01390579196191562</v>
+        <v>9.455847057613243E-05</v>
       </c>
       <c r="T2">
-        <v>0.01390579196191562</v>
+        <v>9.455847057613241E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>23.658831</v>
+        <v>0.07794266666666667</v>
       </c>
       <c r="H3">
-        <v>70.976493</v>
+        <v>0.233828</v>
       </c>
       <c r="I3">
-        <v>0.4072859458409285</v>
+        <v>0.002827880818927331</v>
       </c>
       <c r="J3">
-        <v>0.4072859458409285</v>
+        <v>0.00282788081892733</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O3">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P3">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q3">
-        <v>75.14002928331902</v>
+        <v>0.2475445323462223</v>
       </c>
       <c r="R3">
-        <v>676.2602635498711</v>
+        <v>2.227900791116</v>
       </c>
       <c r="S3">
-        <v>0.3861167579971034</v>
+        <v>0.002615689513559544</v>
       </c>
       <c r="T3">
-        <v>0.3861167579971033</v>
+        <v>0.002615689513559543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>23.658831</v>
+        <v>0.07794266666666667</v>
       </c>
       <c r="H4">
-        <v>70.976493</v>
+        <v>0.233828</v>
       </c>
       <c r="I4">
-        <v>0.4072859458409285</v>
+        <v>0.002827880818927331</v>
       </c>
       <c r="J4">
-        <v>0.4072859458409285</v>
+        <v>0.00282788081892733</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N4">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O4">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P4">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q4">
-        <v>1.413488971818</v>
+        <v>0.01113257706088889</v>
       </c>
       <c r="R4">
-        <v>12.721400746362</v>
+        <v>0.100193193548</v>
       </c>
       <c r="S4">
-        <v>0.007263395881909589</v>
+        <v>0.0001176328347916547</v>
       </c>
       <c r="T4">
-        <v>0.007263395881909588</v>
+        <v>0.0001176328347916547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>75.672584</v>
       </c>
       <c r="I5">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907317</v>
       </c>
       <c r="J5">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907316</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N5">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O5">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P5">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q5">
-        <v>2.885177018232889</v>
+        <v>2.896073870328889</v>
       </c>
       <c r="R5">
-        <v>25.966593164096</v>
+        <v>26.06466483296</v>
       </c>
       <c r="S5">
-        <v>0.01482585523526196</v>
+        <v>0.03060148402921767</v>
       </c>
       <c r="T5">
-        <v>0.01482585523526196</v>
+        <v>0.03060148402921766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>75.672584</v>
       </c>
       <c r="I6">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907317</v>
       </c>
       <c r="J6">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907316</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O6">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P6">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q6">
         <v>80.11159663389422</v>
@@ -818,10 +818,10 @@
         <v>721.0043697050481</v>
       </c>
       <c r="S6">
-        <v>0.4116637997786601</v>
+        <v>0.8465024908597503</v>
       </c>
       <c r="T6">
-        <v>0.4116637997786601</v>
+        <v>0.8465024908597502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>75.672584</v>
       </c>
       <c r="I7">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907317</v>
       </c>
       <c r="J7">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907316</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N7">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O7">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P7">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q7">
-        <v>1.507011102295111</v>
+        <v>3.602780132304889</v>
       </c>
       <c r="R7">
-        <v>13.563099920656</v>
+        <v>32.425021190744</v>
       </c>
       <c r="S7">
-        <v>0.007743971444166131</v>
+        <v>0.03806892490176375</v>
       </c>
       <c r="T7">
-        <v>0.007743971444166131</v>
+        <v>0.03806892490176375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.205968666666667</v>
+        <v>2.260080333333333</v>
       </c>
       <c r="H8">
-        <v>27.617906</v>
+        <v>6.780241</v>
       </c>
       <c r="I8">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="J8">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N8">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O8">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P8">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q8">
-        <v>1.052990970718222</v>
+        <v>0.2594873566711111</v>
       </c>
       <c r="R8">
-        <v>9.476918736464</v>
+        <v>2.33538621004</v>
       </c>
       <c r="S8">
-        <v>0.00541093028166017</v>
+        <v>0.002741883859493245</v>
       </c>
       <c r="T8">
-        <v>0.00541093028166017</v>
+        <v>0.002741883859493245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.205968666666667</v>
+        <v>2.260080333333333</v>
       </c>
       <c r="H9">
-        <v>27.617906</v>
+        <v>6.780241</v>
       </c>
       <c r="I9">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="J9">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O9">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P9">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q9">
-        <v>29.23799384655356</v>
+        <v>7.177975210580779</v>
       </c>
       <c r="R9">
-        <v>263.1419446189821</v>
+        <v>64.601776895227</v>
       </c>
       <c r="S9">
-        <v>0.1502432125998216</v>
+        <v>0.07584637119210047</v>
       </c>
       <c r="T9">
-        <v>0.1502432125998216</v>
+        <v>0.07584637119210047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.205968666666667</v>
+        <v>2.260080333333333</v>
       </c>
       <c r="H10">
-        <v>27.617906</v>
+        <v>6.780241</v>
       </c>
       <c r="I10">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="J10">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N10">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O10">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P10">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q10">
-        <v>0.5500075293337778</v>
+        <v>0.3228080273701111</v>
       </c>
       <c r="R10">
-        <v>4.950067764004</v>
+        <v>2.905272246331</v>
       </c>
       <c r="S10">
-        <v>0.002826284819501664</v>
+        <v>0.0034109643387473</v>
       </c>
       <c r="T10">
-        <v>0.002826284819501664</v>
+        <v>0.0034109643387473</v>
       </c>
     </row>
   </sheetData>
